--- a/Code/Results/Cases/Case_4_183/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_183/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.814735009520575</v>
+        <v>1.25442998338707</v>
       </c>
       <c r="C2">
-        <v>1.078983197632823</v>
+        <v>0.305907168253583</v>
       </c>
       <c r="D2">
-        <v>0.2127322974231305</v>
+        <v>0.07910933540964038</v>
       </c>
       <c r="E2">
-        <v>1.486341234590085</v>
+        <v>0.4189847875735495</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.861512545304095</v>
+        <v>1.320207317101534</v>
       </c>
       <c r="H2">
-        <v>1.474845876109725</v>
+        <v>1.060871089138544</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.275930298277842</v>
+        <v>1.11571172364205</v>
       </c>
       <c r="C3">
-        <v>0.9300643039285603</v>
+        <v>0.2660962492269334</v>
       </c>
       <c r="D3">
-        <v>0.1826242924839079</v>
+        <v>0.07163942886302266</v>
       </c>
       <c r="E3">
-        <v>1.262695409780562</v>
+        <v>0.3650424495941564</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.48172950674882</v>
+        <v>1.234646230428154</v>
       </c>
       <c r="H3">
-        <v>1.305608362300347</v>
+        <v>1.027484546662464</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.951768734158122</v>
+        <v>1.031038508535062</v>
       </c>
       <c r="C4">
-        <v>0.840414388340605</v>
+        <v>0.2416618522267129</v>
       </c>
       <c r="D4">
-        <v>0.1646040382200198</v>
+        <v>0.06709830182005305</v>
       </c>
       <c r="E4">
-        <v>1.130221836132051</v>
+        <v>0.3320775187322766</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.258060666902054</v>
+        <v>1.183124712801799</v>
       </c>
       <c r="H4">
-        <v>1.206481710309674</v>
+        <v>1.007731740605379</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.821054228773846</v>
+        <v>0.996656222508193</v>
       </c>
       <c r="C5">
-        <v>0.8042442899463822</v>
+        <v>0.231706091892022</v>
       </c>
       <c r="D5">
-        <v>0.1573596231096275</v>
+        <v>0.06525890993091821</v>
       </c>
       <c r="E5">
-        <v>1.077242634246176</v>
+        <v>0.3186797070689806</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.168964332204297</v>
+        <v>1.16237764516157</v>
       </c>
       <c r="H5">
-        <v>1.167128803480921</v>
+        <v>0.9998671709435882</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.799424912066627</v>
+        <v>0.9909543949738122</v>
       </c>
       <c r="C6">
-        <v>0.7982578826766371</v>
+        <v>0.2300530054021692</v>
       </c>
       <c r="D6">
-        <v>0.156162179414423</v>
+        <v>0.06495414624363605</v>
       </c>
       <c r="E6">
-        <v>1.068500491566809</v>
+        <v>0.316457062536756</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.154284561847362</v>
+        <v>1.158947423993141</v>
       </c>
       <c r="H6">
-        <v>1.160652872117936</v>
+        <v>0.9985723460179656</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.950000628945531</v>
+        <v>1.030574324050008</v>
       </c>
       <c r="C7">
-        <v>0.839925222041245</v>
+        <v>0.2415275807410069</v>
       </c>
       <c r="D7">
-        <v>0.164505959254825</v>
+        <v>0.06707345032654644</v>
       </c>
       <c r="E7">
-        <v>1.129503531859626</v>
+        <v>0.3318966913833918</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.25685120295276</v>
+        <v>1.182843913426439</v>
       </c>
       <c r="H7">
-        <v>1.205946963119914</v>
+        <v>1.007624931584331</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.627383152823541</v>
+        <v>1.206494151979427</v>
       </c>
       <c r="C8">
-        <v>1.027209320426465</v>
+        <v>0.2921777489528381</v>
       </c>
       <c r="D8">
-        <v>0.2022425965224954</v>
+        <v>0.07652411837329964</v>
       </c>
       <c r="E8">
-        <v>1.408083545451944</v>
+        <v>0.4003509593017895</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.728366830007161</v>
+        <v>1.290491617356878</v>
       </c>
       <c r="H8">
-        <v>1.41539564611432</v>
+        <v>1.049202676127322</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.024207098990018</v>
+        <v>1.555603458338112</v>
       </c>
       <c r="C9">
-        <v>1.413287228428828</v>
+        <v>0.3916293205220995</v>
       </c>
       <c r="D9">
-        <v>0.2809058423199673</v>
+        <v>0.0954305089502725</v>
       </c>
       <c r="E9">
-        <v>2.004489381572625</v>
+        <v>0.5359937010894669</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.74677058527655</v>
+        <v>1.509931604579435</v>
       </c>
       <c r="H9">
-        <v>1.872670879358992</v>
+        <v>1.136797315845286</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.11870457965523</v>
+        <v>1.814867178282213</v>
       </c>
       <c r="C10">
-        <v>1.716370179821183</v>
+        <v>0.4648516556011373</v>
       </c>
       <c r="D10">
-        <v>0.3431615628723677</v>
+        <v>0.1095687659543216</v>
       </c>
       <c r="E10">
-        <v>2.493719990876201</v>
+        <v>0.6367497022969246</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.583121616829374</v>
+        <v>1.676677531922593</v>
       </c>
       <c r="H10">
-        <v>2.251568468240691</v>
+        <v>1.205045105801844</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.639192939040072</v>
+        <v>1.933473796554665</v>
       </c>
       <c r="C11">
-        <v>1.860829621407959</v>
+        <v>0.4982140119613518</v>
       </c>
       <c r="D11">
-        <v>0.3729192265442549</v>
+        <v>0.1160589031314316</v>
       </c>
       <c r="E11">
-        <v>2.733663026080421</v>
+        <v>0.6828792382898001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.991809087842682</v>
+        <v>1.753830512980301</v>
       </c>
       <c r="H11">
-        <v>2.437527172666876</v>
+        <v>1.236981555098112</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.840381765816574</v>
+        <v>1.978487233861586</v>
       </c>
       <c r="C12">
-        <v>1.916739552708691</v>
+        <v>0.510856471565944</v>
       </c>
       <c r="D12">
-        <v>0.3844445834585173</v>
+        <v>0.1185253159803068</v>
       </c>
       <c r="E12">
-        <v>2.827740331515002</v>
+        <v>0.7003940924026182</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.15161883598563</v>
+        <v>1.783240870065754</v>
       </c>
       <c r="H12">
-        <v>2.510365936312098</v>
+        <v>1.24920654137992</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.796854495142725</v>
+        <v>1.968788287986229</v>
       </c>
       <c r="C13">
-        <v>1.904639834496209</v>
+        <v>0.5081332778456158</v>
       </c>
       <c r="D13">
-        <v>0.3819500435935197</v>
+        <v>0.1179937360783043</v>
       </c>
       <c r="E13">
-        <v>2.80732239843141</v>
+        <v>0.6966198153732392</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.116957924792814</v>
+        <v>1.7768980683216</v>
       </c>
       <c r="H13">
-        <v>2.494562480271611</v>
+        <v>1.24656777644401</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.655657294258674</v>
+        <v>1.937175058583989</v>
       </c>
       <c r="C14">
-        <v>1.865403462331813</v>
+        <v>0.4992539300468479</v>
       </c>
       <c r="D14">
-        <v>0.3738619486350814</v>
+        <v>0.1162616394269094</v>
       </c>
       <c r="E14">
-        <v>2.741333522750693</v>
+        <v>0.6843192377623808</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.004848984799821</v>
+        <v>1.75624618628126</v>
       </c>
       <c r="H14">
-        <v>2.443468071849736</v>
+        <v>1.237984660390737</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.569731278586119</v>
+        <v>1.917824142181757</v>
       </c>
       <c r="C15">
-        <v>1.84153598289447</v>
+        <v>0.4938162637143364</v>
       </c>
       <c r="D15">
-        <v>0.3689428860876518</v>
+        <v>0.1152018277609415</v>
       </c>
       <c r="E15">
-        <v>2.70135701677286</v>
+        <v>0.6767909726522134</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.93687011175399</v>
+        <v>1.743621822354669</v>
       </c>
       <c r="H15">
-        <v>2.412502248422072</v>
+        <v>1.232744459117839</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.085211543432138</v>
+        <v>1.807129691975717</v>
       </c>
       <c r="C16">
-        <v>1.70708263901497</v>
+        <v>0.4626725196745269</v>
       </c>
       <c r="D16">
-        <v>0.3412497745065366</v>
+        <v>0.1091458257185565</v>
       </c>
       <c r="E16">
-        <v>2.478445758120586</v>
+        <v>0.6337413208624696</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.557060127953321</v>
+        <v>1.671662175906903</v>
       </c>
       <c r="H16">
-        <v>2.239726444679832</v>
+        <v>1.202976180685823</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.794299863213212</v>
+        <v>1.739395591814628</v>
       </c>
       <c r="C17">
-        <v>1.62645157275648</v>
+        <v>0.443581306432236</v>
       </c>
       <c r="D17">
-        <v>0.3246612410068224</v>
+        <v>0.1054458892147636</v>
       </c>
       <c r="E17">
-        <v>2.346600270010697</v>
+        <v>0.6074102734886395</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.331920598743352</v>
+        <v>1.627855265210542</v>
       </c>
       <c r="H17">
-        <v>2.137513454037702</v>
+        <v>1.184944662353132</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.629041479824593</v>
+        <v>1.700499199300168</v>
       </c>
       <c r="C18">
-        <v>1.580675827357197</v>
+        <v>0.4326054727962969</v>
       </c>
       <c r="D18">
-        <v>0.3152516557235288</v>
+        <v>0.10332327745013</v>
       </c>
       <c r="E18">
-        <v>2.272350471309863</v>
+        <v>0.5922928754959997</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.205011958087681</v>
+        <v>1.602780550790669</v>
       </c>
       <c r="H18">
-        <v>2.079969528138605</v>
+        <v>1.174656995709938</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.573420246346188</v>
+        <v>1.687340162536202</v>
       </c>
       <c r="C19">
-        <v>1.565273303399749</v>
+        <v>0.42889005401247</v>
       </c>
       <c r="D19">
-        <v>0.312087005402816</v>
+        <v>0.1026055316425527</v>
       </c>
       <c r="E19">
-        <v>2.247464169010698</v>
+        <v>0.5871789863538197</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.162460573664703</v>
+        <v>1.594311391377346</v>
       </c>
       <c r="H19">
-        <v>2.060687789526014</v>
+        <v>1.171188023648398</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.825048590815186</v>
+        <v>1.746599509297141</v>
       </c>
       <c r="C20">
-        <v>1.634971000532516</v>
+        <v>0.4456130800400615</v>
       </c>
       <c r="D20">
-        <v>0.3264131614949548</v>
+        <v>0.1058391829128169</v>
       </c>
       <c r="E20">
-        <v>2.360466928078324</v>
+        <v>0.6102103799578913</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.35561306715141</v>
+        <v>1.632505920566416</v>
       </c>
       <c r="H20">
-        <v>2.148262201627745</v>
+        <v>1.186855473446172</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.697011539029347</v>
+        <v>1.946457893353283</v>
       </c>
       <c r="C21">
-        <v>1.876892994048376</v>
+        <v>0.5018617593897829</v>
       </c>
       <c r="D21">
-        <v>0.3762301903736613</v>
+        <v>0.1167701584790422</v>
       </c>
       <c r="E21">
-        <v>2.760622028426198</v>
+        <v>0.6879309172300481</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.03763194249359</v>
+        <v>1.762306815094178</v>
       </c>
       <c r="H21">
-        <v>2.458405760564176</v>
+        <v>1.240502138058901</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.291294450967825</v>
+        <v>2.077659840819194</v>
       </c>
       <c r="C22">
-        <v>2.042208252689079</v>
+        <v>0.5386757569559109</v>
       </c>
       <c r="D22">
-        <v>0.4103178988349185</v>
+        <v>0.1239652708920573</v>
       </c>
       <c r="E22">
-        <v>3.041391867311759</v>
+        <v>0.7389994021384325</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.513456422037564</v>
+        <v>1.848274625830186</v>
       </c>
       <c r="H22">
-        <v>2.675518716228851</v>
+        <v>1.276330508877152</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.971544281052104</v>
+        <v>2.007580235491616</v>
       </c>
       <c r="C23">
-        <v>1.953212492502246</v>
+        <v>0.5190222411223999</v>
       </c>
       <c r="D23">
-        <v>0.3919648153659523</v>
+        <v>0.1201203231432117</v>
       </c>
       <c r="E23">
-        <v>2.889483573229711</v>
+        <v>0.7117167541878615</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.256350070365215</v>
+        <v>1.802285639974116</v>
       </c>
       <c r="H23">
-        <v>2.558135810047418</v>
+        <v>1.257136919106074</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.811140951360869</v>
+        <v>1.743342478814952</v>
       </c>
       <c r="C24">
-        <v>1.631117578891917</v>
+        <v>0.4446945154101059</v>
       </c>
       <c r="D24">
-        <v>0.3256207250879584</v>
+        <v>0.1056613607420758</v>
       </c>
       <c r="E24">
-        <v>2.354193035325721</v>
+        <v>0.6089443877483518</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.344893902133066</v>
+        <v>1.630403015769303</v>
       </c>
       <c r="H24">
-        <v>2.14339892727304</v>
+        <v>1.185991350267244</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.636563680785969</v>
+        <v>1.460692016564508</v>
       </c>
       <c r="C25">
-        <v>1.306101449375376</v>
+        <v>0.3647035457725565</v>
       </c>
       <c r="D25">
-        <v>0.258976609376262</v>
+        <v>0.09027378889304316</v>
       </c>
       <c r="E25">
-        <v>1.835934942614756</v>
+        <v>0.499123579319658</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.458384142808114</v>
+        <v>1.449629249400004</v>
       </c>
       <c r="H25">
-        <v>1.742645662266057</v>
+        <v>1.112431583821291</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_183/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_183/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.25442998338707</v>
+        <v>3.814735009520518</v>
       </c>
       <c r="C2">
-        <v>0.305907168253583</v>
+        <v>1.078983197632795</v>
       </c>
       <c r="D2">
-        <v>0.07910933540964038</v>
+        <v>0.2127322974233721</v>
       </c>
       <c r="E2">
-        <v>0.4189847875735495</v>
+        <v>1.486341234590114</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.320207317101534</v>
+        <v>2.861512545304208</v>
       </c>
       <c r="H2">
-        <v>1.060871089138544</v>
+        <v>1.474845876109583</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.11571172364205</v>
+        <v>3.275930298277729</v>
       </c>
       <c r="C3">
-        <v>0.2660962492269334</v>
+        <v>0.9300643039287877</v>
       </c>
       <c r="D3">
-        <v>0.07163942886302266</v>
+        <v>0.1826242924838795</v>
       </c>
       <c r="E3">
-        <v>0.3650424495941564</v>
+        <v>1.262695409780576</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.234646230428154</v>
+        <v>2.481729506748877</v>
       </c>
       <c r="H3">
-        <v>1.027484546662464</v>
+        <v>1.305608362300433</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.031038508535062</v>
+        <v>2.951768734158236</v>
       </c>
       <c r="C4">
-        <v>0.2416618522267129</v>
+        <v>0.8404143883407187</v>
       </c>
       <c r="D4">
-        <v>0.06709830182005305</v>
+        <v>0.1646040382200198</v>
       </c>
       <c r="E4">
-        <v>0.3320775187322766</v>
+        <v>1.130221836132023</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.183124712801799</v>
+        <v>2.258060666901912</v>
       </c>
       <c r="H4">
-        <v>1.007731740605379</v>
+        <v>1.206481710309674</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.996656222508193</v>
+        <v>2.821054228773846</v>
       </c>
       <c r="C5">
-        <v>0.231706091892022</v>
+        <v>0.8042442899465811</v>
       </c>
       <c r="D5">
-        <v>0.06525890993091821</v>
+        <v>0.1573596231096275</v>
       </c>
       <c r="E5">
-        <v>0.3186797070689806</v>
+        <v>1.077242634246204</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.16237764516157</v>
+        <v>2.168964332204325</v>
       </c>
       <c r="H5">
-        <v>0.9998671709435882</v>
+        <v>1.167128803480921</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9909543949738122</v>
+        <v>2.799424912066627</v>
       </c>
       <c r="C6">
-        <v>0.2300530054021692</v>
+        <v>0.7982578826770919</v>
       </c>
       <c r="D6">
-        <v>0.06495414624363605</v>
+        <v>0.1561621794144088</v>
       </c>
       <c r="E6">
-        <v>0.316457062536756</v>
+        <v>1.068500491566795</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.158947423993141</v>
+        <v>2.154284561847362</v>
       </c>
       <c r="H6">
-        <v>0.9985723460179656</v>
+        <v>1.160652872117822</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.030574324050008</v>
+        <v>2.950000628945702</v>
       </c>
       <c r="C7">
-        <v>0.2415275807410069</v>
+        <v>0.839925222041245</v>
       </c>
       <c r="D7">
-        <v>0.06707345032654644</v>
+        <v>0.1645059592548535</v>
       </c>
       <c r="E7">
-        <v>0.3318966913833918</v>
+        <v>1.129503531859626</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.182843913426439</v>
+        <v>2.256851202952788</v>
       </c>
       <c r="H7">
-        <v>1.007624931584331</v>
+        <v>1.205946963119914</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.206494151979427</v>
+        <v>3.627383152823654</v>
       </c>
       <c r="C8">
-        <v>0.2921777489528381</v>
+        <v>1.027209320426209</v>
       </c>
       <c r="D8">
-        <v>0.07652411837329964</v>
+        <v>0.2022425965224812</v>
       </c>
       <c r="E8">
-        <v>0.4003509593017895</v>
+        <v>1.408083545451902</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.290491617356878</v>
+        <v>2.728366830007218</v>
       </c>
       <c r="H8">
-        <v>1.049202676127322</v>
+        <v>1.415395646114433</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.555603458338112</v>
+        <v>5.024207098989734</v>
       </c>
       <c r="C9">
-        <v>0.3916293205220995</v>
+        <v>1.413287228428828</v>
       </c>
       <c r="D9">
-        <v>0.0954305089502725</v>
+        <v>0.2809058423201947</v>
       </c>
       <c r="E9">
-        <v>0.5359937010894669</v>
+        <v>2.004489381572569</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.509931604579435</v>
+        <v>3.746770585276522</v>
       </c>
       <c r="H9">
-        <v>1.136797315845286</v>
+        <v>1.872670879358992</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.814867178282213</v>
+        <v>6.118704579655116</v>
       </c>
       <c r="C10">
-        <v>0.4648516556011373</v>
+        <v>1.716370179820899</v>
       </c>
       <c r="D10">
-        <v>0.1095687659543216</v>
+        <v>0.3431615628722682</v>
       </c>
       <c r="E10">
-        <v>0.6367497022969246</v>
+        <v>2.493719990876173</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.676677531922593</v>
+        <v>4.583121616829374</v>
       </c>
       <c r="H10">
-        <v>1.205045105801844</v>
+        <v>2.251568468240521</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.933473796554665</v>
+        <v>6.639192939040015</v>
       </c>
       <c r="C11">
-        <v>0.4982140119613518</v>
+        <v>1.860829621408016</v>
       </c>
       <c r="D11">
-        <v>0.1160589031314316</v>
+        <v>0.3729192265442549</v>
       </c>
       <c r="E11">
-        <v>0.6828792382898001</v>
+        <v>2.733663026080436</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.753830512980301</v>
+        <v>4.99180908784291</v>
       </c>
       <c r="H11">
-        <v>1.236981555098112</v>
+        <v>2.437527172666705</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.978487233861586</v>
+        <v>6.840381765816801</v>
       </c>
       <c r="C12">
-        <v>0.510856471565944</v>
+        <v>1.916739552708975</v>
       </c>
       <c r="D12">
-        <v>0.1185253159803068</v>
+        <v>0.3844445834585031</v>
       </c>
       <c r="E12">
-        <v>0.7003940924026182</v>
+        <v>2.827740331515045</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.783240870065754</v>
+        <v>5.151618835985801</v>
       </c>
       <c r="H12">
-        <v>1.24920654137992</v>
+        <v>2.510365936312098</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.968788287986229</v>
+        <v>6.796854495142782</v>
       </c>
       <c r="C13">
-        <v>0.5081332778456158</v>
+        <v>1.904639834496265</v>
       </c>
       <c r="D13">
-        <v>0.1179937360783043</v>
+        <v>0.3819500435933634</v>
       </c>
       <c r="E13">
-        <v>0.6966198153732392</v>
+        <v>2.807322398431452</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.7768980683216</v>
+        <v>5.1169579247927</v>
       </c>
       <c r="H13">
-        <v>1.24656777644401</v>
+        <v>2.494562480271668</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.937175058583989</v>
+        <v>6.655657294258901</v>
       </c>
       <c r="C14">
-        <v>0.4992539300468479</v>
+        <v>1.865403462332097</v>
       </c>
       <c r="D14">
-        <v>0.1162616394269094</v>
+        <v>0.3738619486351098</v>
       </c>
       <c r="E14">
-        <v>0.6843192377623808</v>
+        <v>2.741333522750708</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.75624618628126</v>
+        <v>5.004848984799878</v>
       </c>
       <c r="H14">
-        <v>1.237984660390737</v>
+        <v>2.443468071849907</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.917824142181757</v>
+        <v>6.569731278585891</v>
       </c>
       <c r="C15">
-        <v>0.4938162637143364</v>
+        <v>1.84153598289447</v>
       </c>
       <c r="D15">
-        <v>0.1152018277609415</v>
+        <v>0.368942886087865</v>
       </c>
       <c r="E15">
-        <v>0.6767909726522134</v>
+        <v>2.70135701677286</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.743621822354669</v>
+        <v>4.93687011175399</v>
       </c>
       <c r="H15">
-        <v>1.232744459117839</v>
+        <v>2.412502248422072</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.807129691975717</v>
+        <v>6.085211543431967</v>
       </c>
       <c r="C16">
-        <v>0.4626725196745269</v>
+        <v>1.707082639015084</v>
       </c>
       <c r="D16">
-        <v>0.1091458257185565</v>
+        <v>0.3412497745067071</v>
       </c>
       <c r="E16">
-        <v>0.6337413208624696</v>
+        <v>2.4784457581206</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.671662175906903</v>
+        <v>4.557060127953264</v>
       </c>
       <c r="H16">
-        <v>1.202976180685823</v>
+        <v>2.239726444679718</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.739395591814628</v>
+        <v>5.794299863213496</v>
       </c>
       <c r="C17">
-        <v>0.443581306432236</v>
+        <v>1.626451572756764</v>
       </c>
       <c r="D17">
-        <v>0.1054458892147636</v>
+        <v>0.3246612410066234</v>
       </c>
       <c r="E17">
-        <v>0.6074102734886395</v>
+        <v>2.346600270010669</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.627855265210542</v>
+        <v>4.331920598743295</v>
       </c>
       <c r="H17">
-        <v>1.184944662353132</v>
+        <v>2.137513454037816</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.700499199300168</v>
+        <v>5.629041479824423</v>
       </c>
       <c r="C18">
-        <v>0.4326054727962969</v>
+        <v>1.580675827357481</v>
       </c>
       <c r="D18">
-        <v>0.10332327745013</v>
+        <v>0.3152516557233724</v>
       </c>
       <c r="E18">
-        <v>0.5922928754959997</v>
+        <v>2.272350471309878</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.602780550790669</v>
+        <v>4.205011958087567</v>
       </c>
       <c r="H18">
-        <v>1.174656995709938</v>
+        <v>2.079969528138577</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.687340162536202</v>
+        <v>5.573420246346302</v>
       </c>
       <c r="C19">
-        <v>0.42889005401247</v>
+        <v>1.565273303399465</v>
       </c>
       <c r="D19">
-        <v>0.1026055316425527</v>
+        <v>0.3120870054027876</v>
       </c>
       <c r="E19">
-        <v>0.5871789863538197</v>
+        <v>2.247464169010712</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.594311391377346</v>
+        <v>4.162460573664617</v>
       </c>
       <c r="H19">
-        <v>1.171188023648398</v>
+        <v>2.060687789525986</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.746599509297141</v>
+        <v>5.825048590815072</v>
       </c>
       <c r="C20">
-        <v>0.4456130800400615</v>
+        <v>1.634971000532801</v>
       </c>
       <c r="D20">
-        <v>0.1058391829128169</v>
+        <v>0.3264131614949832</v>
       </c>
       <c r="E20">
-        <v>0.6102103799578913</v>
+        <v>2.360466928078267</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.632505920566416</v>
+        <v>4.355613067151353</v>
       </c>
       <c r="H20">
-        <v>1.186855473446172</v>
+        <v>2.148262201627858</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.946457893353283</v>
+        <v>6.697011539029404</v>
       </c>
       <c r="C21">
-        <v>0.5018617593897829</v>
+        <v>1.876892994048319</v>
       </c>
       <c r="D21">
-        <v>0.1167701584790422</v>
+        <v>0.3762301903738745</v>
       </c>
       <c r="E21">
-        <v>0.6879309172300481</v>
+        <v>2.760622028426184</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.762306815094178</v>
+        <v>5.03763194249359</v>
       </c>
       <c r="H21">
-        <v>1.240502138058901</v>
+        <v>2.458405760564176</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.077659840819194</v>
+        <v>7.291294450968167</v>
       </c>
       <c r="C22">
-        <v>0.5386757569559109</v>
+        <v>2.042208252689079</v>
       </c>
       <c r="D22">
-        <v>0.1239652708920573</v>
+        <v>0.4103178988349185</v>
       </c>
       <c r="E22">
-        <v>0.7389994021384325</v>
+        <v>3.041391867311773</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.848274625830186</v>
+        <v>5.513456422037564</v>
       </c>
       <c r="H22">
-        <v>1.276330508877152</v>
+        <v>2.675518716229021</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.007580235491616</v>
+        <v>6.971544281052161</v>
       </c>
       <c r="C23">
-        <v>0.5190222411223999</v>
+        <v>1.953212492502246</v>
       </c>
       <c r="D23">
-        <v>0.1201203231432117</v>
+        <v>0.3919648153661228</v>
       </c>
       <c r="E23">
-        <v>0.7117167541878615</v>
+        <v>2.889483573229739</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.802285639974116</v>
+        <v>5.256350070364931</v>
       </c>
       <c r="H23">
-        <v>1.257136919106074</v>
+        <v>2.558135810047418</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.743342478814952</v>
+        <v>5.811140951361097</v>
       </c>
       <c r="C24">
-        <v>0.4446945154101059</v>
+        <v>1.63111757889169</v>
       </c>
       <c r="D24">
-        <v>0.1056613607420758</v>
+        <v>0.3256207250879726</v>
       </c>
       <c r="E24">
-        <v>0.6089443877483518</v>
+        <v>2.354193035325821</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.630403015769303</v>
+        <v>4.344893902133066</v>
       </c>
       <c r="H24">
-        <v>1.185991350267244</v>
+        <v>2.14339892727304</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.460692016564508</v>
+        <v>4.636563680785855</v>
       </c>
       <c r="C25">
-        <v>0.3647035457725565</v>
+        <v>1.306101449375376</v>
       </c>
       <c r="D25">
-        <v>0.09027378889304316</v>
+        <v>0.2589766093761625</v>
       </c>
       <c r="E25">
-        <v>0.499123579319658</v>
+        <v>1.835934942614685</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.449629249400004</v>
+        <v>3.458384142807887</v>
       </c>
       <c r="H25">
-        <v>1.112431583821291</v>
+        <v>1.742645662266057</v>
       </c>
       <c r="I25">
         <v>0</v>
